--- a/grocery/recettes.xlsx
+++ b/grocery/recettes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\grocery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repo\automated_grocery_list\grocery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899918C-65E8-41B9-BA3F-981D14A8A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E39BAE1-FACB-4A58-9208-3B9432516495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61C671A2-11E5-4B70-AF1E-44D95A4BDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Semaine</t>
   </si>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,9 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -546,6 +549,9 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -553,6 +559,9 @@
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
